--- a/PARABENS/pacientes_aniversario.xlsx
+++ b/PARABENS/pacientes_aniversario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorj\Documents\MEU\PROJETOS\PARABENS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorj\Documents\MEU\PROJETOS\PROTÓTIPOS FREIRE\PARABENS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F5EDE5-593B-4B27-BC93-7FBB810B26A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4EF3F9-E854-44BF-9798-32384060A083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,7 +412,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>38087</v>
+        <v>38094</v>
       </c>
       <c r="C2" s="2">
         <v>5528999004260</v>
